--- a/CoffeeMerchant/BISolutionWorksheets.xlsx
+++ b/CoffeeMerchant/BISolutionWorksheets.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Quarter 1\DataWarehouseMining\Module 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abbey Beissler\Documents\GitHub\CoffeeMerchant\CoffeeMerchant\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="217">
   <si>
     <t>Object Name</t>
   </si>
@@ -334,9 +334,6 @@
     <t>Dimension Column</t>
   </si>
   <si>
-    <t>char(2)</t>
-  </si>
-  <si>
     <t>nvarchar(50)</t>
   </si>
   <si>
@@ -349,9 +346,6 @@
     <t>na</t>
   </si>
   <si>
-    <t>nchar(4)</t>
-  </si>
-  <si>
     <t>Data Warehouse Objects Worksheet</t>
   </si>
   <si>
@@ -451,54 +445,15 @@
     <t>CoffeeMerchant.dbo.Sales</t>
   </si>
   <si>
-    <t>DWCoffeeMerchant.dbo.FullPrice</t>
-  </si>
-  <si>
-    <t>DWCoffeeMerchant.dbo.Revenue</t>
-  </si>
-  <si>
-    <t>DWCoffeeMerchant.dbo.Profit</t>
-  </si>
-  <si>
-    <t>DWCoffeeMerchant.dbo.PriceofProduct</t>
-  </si>
-  <si>
-    <t>DWCoffeeMerchant.dbo.DiscountPrice</t>
-  </si>
-  <si>
-    <t>DWCoffeeMerchant.dbo.TotalCommissionbyDate</t>
-  </si>
-  <si>
-    <t>DWCoffeeMerchant.dbo.PricebyQuantity</t>
-  </si>
-  <si>
     <t>CoffeeMerchant.dbo.Sales.dbo.Order_Line</t>
   </si>
   <si>
-    <t>CoffeeMerchant.dbo.Sales.dbo.Order_Line.dbo.Inventory.dbo.Employee.dbo.State</t>
-  </si>
-  <si>
     <t>CoffeeMerchant.dbo.Sales.dbo.Order_Line.dbo.Inventory</t>
   </si>
   <si>
-    <t>CoffeeMerchant.dbo.Sales.dbo.Inventory</t>
-  </si>
-  <si>
     <t>CoffeeMerchant.dbo.Sales.dbo.Employee</t>
   </si>
   <si>
-    <t>DWCoffeeMerchant.dbo.DimStores.City</t>
-  </si>
-  <si>
-    <t>DWCoffeeMerchant.dbo.DimStores.State</t>
-  </si>
-  <si>
-    <t>DWCoffeeMerchant.dbo.DimStores.ZipCode</t>
-  </si>
-  <si>
-    <t>DWCoffeeMerchant.dbo.DimStores.CreditLimit</t>
-  </si>
-  <si>
     <t>DWCoffeeMerchant.dbo.DimConsumer</t>
   </si>
   <si>
@@ -517,39 +472,21 @@
     <t>CoffeeMerchant.dbo.Consumer</t>
   </si>
   <si>
-    <t>DWCoffeeMerchant.dbo.DimConsumer.ConsumerKey</t>
-  </si>
-  <si>
-    <t>varchar(30)</t>
-  </si>
-  <si>
     <t>nvarchar(40)</t>
   </si>
   <si>
-    <t>char(5)</t>
-  </si>
-  <si>
-    <t>nvarchar(8)</t>
-  </si>
-  <si>
     <t>DWCoffeeMerchant.dbo.DimEmployee</t>
   </si>
   <si>
     <t>CoffeeMerchant.dbo.Employee</t>
   </si>
   <si>
-    <t>DWCoffeeMerchant.dbo.DimEmployee.HireDate</t>
-  </si>
-  <si>
     <t>DWCoffeeMerchant.dbo.DimEmployee.Name</t>
   </si>
   <si>
     <t>DWCoffeeMerchant.dbo.DimEmployee.Gender</t>
   </si>
   <si>
-    <t>DWCoffeeMerchant.dbo.DimEmployee.Age</t>
-  </si>
-  <si>
     <t>DWCoffeeMerchant.dbo.DimEmployee.CommissionRate</t>
   </si>
   <si>
@@ -565,42 +502,9 @@
     <t>CoffeeMerchant.dbo.Employee.CommissionRate</t>
   </si>
   <si>
-    <t>DWCoffeeMerchant.dbo.DimEmployee.EmployeerKey</t>
-  </si>
-  <si>
-    <t>CoffeeMerchant.dbo.Employee.Name</t>
-  </si>
-  <si>
-    <t>nvarchar(25)</t>
-  </si>
-  <si>
-    <t>nvarchar(30)</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>char(1)</t>
-  </si>
-  <si>
     <t>DWCoffeeMerchant.dbo.DimInventory</t>
   </si>
   <si>
-    <t>DWCoffeeMerchant.dbo.DimInventory.InventoryKey</t>
-  </si>
-  <si>
-    <t>DWCoffeeMerchant.dbo.DimInventory.Name</t>
-  </si>
-  <si>
-    <t>DWCoffeeMerchant.dbo.DimInventory.Price</t>
-  </si>
-  <si>
-    <t>DWCoffeeMerchant.dbo.DimInventory.ItemType</t>
-  </si>
-  <si>
-    <t>DWCoffeeMerchant.dbo.DimInventory.Country</t>
-  </si>
-  <si>
     <t>CoffeeMerchant.dbo.Inventory</t>
   </si>
   <si>
@@ -613,27 +517,9 @@
     <t>CoffeeMerchant.dbo.Inventory.ItemType</t>
   </si>
   <si>
-    <t>CoffeeMerchant.dbo.Inventory.Country</t>
-  </si>
-  <si>
-    <t>nvarchar(75)</t>
-  </si>
-  <si>
-    <t>char(20)</t>
-  </si>
-  <si>
-    <t>char(30)</t>
-  </si>
-  <si>
     <t>DWCoffeeMerchant.dbo.DimDate</t>
   </si>
   <si>
-    <t>DWCoffeeMerchant.dbo.DimDate.DateKey</t>
-  </si>
-  <si>
-    <t>DWCoffeeMerchant.dbo.DimDate.DayofWeek</t>
-  </si>
-  <si>
     <t>DWCoffeeMerchant.dbo.DimDate.Month</t>
   </si>
   <si>
@@ -652,46 +538,158 @@
     <t>DWCoffeeMerchant.dbo.DimDate.YearName</t>
   </si>
   <si>
-    <t>DWCoffeeMerchant.dbo.DimDate.DayofMonth</t>
-  </si>
-  <si>
-    <t>DWCoffeeMerchant.dbo.DimDate.DayofMonthName</t>
-  </si>
-  <si>
-    <t>DWCoffeeMerchant.dbo.DimDate.DayofWeekName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DWCoffeeMerchant.dbo.DimDate.Season </t>
-  </si>
-  <si>
-    <t>DWCoffeeMerchant.dbo.DimDate.SeasonName</t>
-  </si>
-  <si>
-    <t>DWCoffeeMerchant.dbo.DimDate.HolidayFlag</t>
-  </si>
-  <si>
-    <t>DWCoffeeMerchant.dbo.DimDate.HolidayFlagName</t>
-  </si>
-  <si>
-    <t>varchar(10)</t>
+    <t>DWCoffeeMerchant.dbo.DimDate.DateSK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DWCoffeeMerchant.dbo.DimDate.Date </t>
+  </si>
+  <si>
+    <t>DWCoffeeMerchant.dbo.DimDate.DateName</t>
+  </si>
+  <si>
+    <t>DWCoffeeMerchant.dbo.DimInventory.InventorySK</t>
+  </si>
+  <si>
+    <t>DWCoffeeMerchant.dbo.DimInventory.InventoryAK</t>
+  </si>
+  <si>
+    <t>DWCoffeeMerchant.dbo.DimInventory.InventoryName</t>
+  </si>
+  <si>
+    <t>DWCoffeeMerchant.dbo.DimInventory.InventoryPrice</t>
+  </si>
+  <si>
+    <t>DWCoffeeMerchant.dbo.DimInventory.InventoryItemType</t>
+  </si>
+  <si>
+    <t>DWCoffeeMerchant.dbo.DimInventory.InventoryCountryName</t>
+  </si>
+  <si>
+    <t>DWCoffeeMerchant.dbo.DimInventory.InventoryOnHand</t>
+  </si>
+  <si>
+    <t>DWCoffeeMerchant.dbo.DimEmployee.EmployeeSK</t>
+  </si>
+  <si>
+    <t>DWCoffeeMerchant.dbo.DimEmployee.EmployeeAK</t>
+  </si>
+  <si>
+    <t>DWCoffeeMerchant.dbo.DimEmployee.HireRate</t>
+  </si>
+  <si>
+    <t>DWCoffeeMerchant.dbo.DimEmployee.BirthDate</t>
+  </si>
+  <si>
+    <t>DWCoffeeMerchant.dbo.DimConsumer.ConsumerSK</t>
+  </si>
+  <si>
+    <t>DWCoffeeMerchant.dbo.DimConsumer.ConsumerAK</t>
+  </si>
+  <si>
+    <t>DWCoffeeMerchant.dbo.DimConsumer.ConsumerCity</t>
+  </si>
+  <si>
+    <t>DWCoffeeMerchant.dbo.DimConsumer.ConsumerState</t>
+  </si>
+  <si>
+    <t>DWCoffeeMerchant.dbo.DimConsumer.ConsumerZipcode</t>
+  </si>
+  <si>
+    <t>DWCoffeeMerchant.dbo.DimConsumer.ConsumerCreditLimit</t>
+  </si>
+  <si>
+    <t>CoffeeMerchant.dbo.Consumer.ConsumerID</t>
+  </si>
+  <si>
+    <t>nvarchar(2)</t>
+  </si>
+  <si>
+    <t>nvarchar(11)</t>
+  </si>
+  <si>
+    <t>CoffeeMerchant.dbo.Employee.EmployeeID</t>
+  </si>
+  <si>
+    <t>CoffeeMerchant.dbo.Inventory.InventoryID</t>
+  </si>
+  <si>
+    <t>CoffeeMerchant.dbo.Employee.FirstName &amp; CoffeeMerchant.dbo.EmployeeLastName</t>
+  </si>
+  <si>
+    <t>nvarchar(60)</t>
+  </si>
+  <si>
+    <t>numeric (4,4)</t>
+  </si>
+  <si>
+    <t>nvarchar(1)</t>
+  </si>
+  <si>
+    <t>CoffeeMerchant.dbo.Inventory.OnHand</t>
+  </si>
+  <si>
+    <t>nvarchar(5)</t>
+  </si>
+  <si>
+    <t>numeric (6,2)</t>
+  </si>
+  <si>
+    <t>CoffeeMerchant.dbo.Country.CountryName</t>
+  </si>
+  <si>
+    <t>nvarchar(20)</t>
+  </si>
+  <si>
+    <t>nvarchart(20)</t>
+  </si>
+  <si>
+    <t>nvarchar(10)</t>
+  </si>
+  <si>
+    <t>Measure Column</t>
+  </si>
+  <si>
+    <t>DWCoffeeMerchant.dbo.FactSales.DateSK</t>
+  </si>
+  <si>
+    <t>DWCoffeeMerchant.dbo.FactSales.FullPrice</t>
+  </si>
+  <si>
+    <t>DWCoffeeMerchant.dbo.FactSales.Revenue</t>
+  </si>
+  <si>
+    <t>DWCoffeeMerchant.dbo.FactSales.Profit</t>
+  </si>
+  <si>
+    <t>DWCoffeeMerchant.dbo.FactSales.DiscountPrice</t>
+  </si>
+  <si>
+    <t>DWCoffeeMerchant.dbo.FactSales.TotalCommission</t>
+  </si>
+  <si>
+    <t>DWCoffeeMerchant.dbo.FactSales.Quantity</t>
+  </si>
+  <si>
+    <t>DWCoffeeMerchant.dbo.FactSales.ConsumerSK</t>
+  </si>
+  <si>
+    <t>DWCoffeeMerchant.dbo.FactSales.EmployeeSK</t>
+  </si>
+  <si>
+    <t>DWCoffeeMerchant.dbo.FactSales.InventorySK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Helvetica 65 Medium"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -741,6 +739,39 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Helvetica 65 Medium"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica 65 Medium"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica 65 Medium"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Helvetica 65 Medium"/>
       <family val="2"/>
     </font>
@@ -950,20 +981,20 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -971,15 +1002,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -989,44 +1020,46 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1381,72 +1414,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="41" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>128</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>130</v>
       </c>
       <c r="D2" s="27" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="49" t="s">
-        <v>131</v>
-      </c>
-      <c r="B3" s="49" t="s">
-        <v>132</v>
-      </c>
-      <c r="C3" s="49" t="s">
+      <c r="A3" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="C3" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="42" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D4" s="27" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="B5" s="50" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="D5" s="50" t="s">
+      <c r="A5" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="43" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1565,37 +1598,37 @@
         <v>11</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C2" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="F2" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="G2" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>113</v>
-      </c>
       <c r="H2" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="K2" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="L2" s="15" t="s">
         <v>111</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1606,7 +1639,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
@@ -1629,7 +1662,7 @@
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
@@ -1651,7 +1684,7 @@
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
       <c r="H5" s="24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I5" s="23"/>
       <c r="J5" s="23"/>
@@ -1671,7 +1704,7 @@
       <c r="F6" s="27"/>
       <c r="G6" s="27"/>
       <c r="H6" s="28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I6" s="29"/>
       <c r="J6" s="27"/>
@@ -1691,7 +1724,7 @@
       <c r="F7" s="27"/>
       <c r="G7" s="27"/>
       <c r="H7" s="28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
@@ -1711,7 +1744,7 @@
       <c r="F8" s="32"/>
       <c r="G8" s="32"/>
       <c r="H8" s="33" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I8" s="32"/>
       <c r="J8" s="32"/>
@@ -1731,10 +1764,10 @@
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
@@ -1756,7 +1789,7 @@
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="21" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L10" s="20"/>
     </row>
@@ -2287,7 +2320,7 @@
       <c r="E46" s="7"/>
     </row>
     <row r="47" spans="1:5" ht="12.6" customHeight="1">
-      <c r="A47" s="51" t="s">
+      <c r="A47" s="44" t="s">
         <v>33</v>
       </c>
       <c r="B47" t="s">
@@ -2301,7 +2334,7 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="51"/>
+      <c r="A48" s="44"/>
       <c r="C48" t="s">
         <v>66</v>
       </c>
@@ -2353,801 +2386,823 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A3:E49"/>
+  <dimension ref="A3:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="52" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="76.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58" style="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" style="46" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="46"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5" ht="18">
-      <c r="A3" s="1" t="s">
-        <v>108</v>
+      <c r="A3" s="45" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="47" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="B5" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="37" t="s">
+      <c r="B6" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="D5" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="38" t="s">
+      <c r="D6" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="50" t="s">
+        <v>214</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="50" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="50" t="s">
+        <v>216</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="C11" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="38" t="s">
+      <c r="D11" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="B12" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="C12" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D12" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="B13" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.4" customHeight="1">
+      <c r="A14" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="B14" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14.4" customHeight="1">
+      <c r="A15" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="B15" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15" s="50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="14.4" customHeight="1">
+      <c r="A16" s="50" t="s">
+        <v>213</v>
+      </c>
+      <c r="B16" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" s="50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="D17" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E17" s="49" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="B7" s="39" t="s">
+    <row r="18" spans="1:5">
+      <c r="A18" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="B18" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C18" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" s="50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="50" t="s">
+        <v>185</v>
+      </c>
+      <c r="B19" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="50" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="50" t="s">
+        <v>187</v>
+      </c>
+      <c r="B21" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="E21" s="50" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="B22" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="E22" s="50" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="B23" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="D24" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="B25" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="E25" s="50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="B26" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="B27" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="D27" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="E27" s="50" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="B28" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="E28" s="50" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="B29" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="D29" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="50" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="B30" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="D30" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="50" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="B31" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="D31" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="E31" s="50" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="B32" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="D32" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="B33" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="E33" s="50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="14.4" customHeight="1">
+      <c r="A34" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="B34" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="D34" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="B35" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="D35" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="D7" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="E7" s="39" t="s">
+      <c r="E35" s="50" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="B36" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="D36" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="E36" s="51" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="B37" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="D37" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="E37" s="51" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="B38" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="D38" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="E38" s="51" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="B39" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="D39" s="51" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="B8" s="39" t="s">
+      <c r="E39" s="51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="B40" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="E40" s="52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="B41" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="E8" s="39" t="s">
+      <c r="C41" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="E41" s="51" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9" s="39" t="s">
+    <row r="42" spans="1:5">
+      <c r="A42" s="51" t="s">
+        <v>171</v>
+      </c>
+      <c r="B42" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="E42" s="51" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="B43" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="E43" s="51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="B44" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="D44" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="E44" s="51" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="E10" s="39" t="s">
+    <row r="45" spans="1:5">
+      <c r="A45" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="B45" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="D45" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="E45" s="51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="B46" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="D46" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="E46" s="51" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A11" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="E11" s="39" t="s">
+    <row r="47" spans="1:5">
+      <c r="A47" s="50" t="s">
+        <v>167</v>
+      </c>
+      <c r="B47" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="D47" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="E47" s="51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="B48" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="D48" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="E48" s="51" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A12" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="E12" s="39" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A13" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="E13" s="39" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="39" t="s">
+    <row r="49" spans="1:5">
+      <c r="A49" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="B49" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="E15" s="39" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="E16" s="39" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="B17" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="D17" s="39" t="s">
+      <c r="D49" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="E49" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="E17" s="39" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="B18" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="D18" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="E18" s="39" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="B19" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="B20" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="D20" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="38" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="39" t="s">
-        <v>179</v>
-      </c>
-      <c r="B21" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="D21" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="E21" s="39" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="B22" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>180</v>
-      </c>
-      <c r="D22" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="E22" s="39" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="39" t="s">
-        <v>170</v>
-      </c>
-      <c r="B23" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="D23" s="39" t="s">
-        <v>183</v>
-      </c>
-      <c r="E23" s="39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="B24" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="C24" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="D24" s="39" t="s">
-        <v>184</v>
-      </c>
-      <c r="E24" s="39" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="B25" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="C25" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="D25" s="39" t="s">
-        <v>183</v>
-      </c>
-      <c r="E25" s="39" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="B26" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="D26" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="E26" s="39" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="B27" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="D27" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="38" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="B28" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="D28" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="E28" s="39" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A29" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="B29" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="C29" s="39" t="s">
-        <v>192</v>
-      </c>
-      <c r="D29" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="E29" s="39" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="B30" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="C30" s="39" t="s">
-        <v>193</v>
-      </c>
-      <c r="D30" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="E30" s="39" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="41" t="s">
-        <v>189</v>
-      </c>
-      <c r="B31" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="C31" s="41" t="s">
-        <v>194</v>
-      </c>
-      <c r="D31" s="41" t="s">
-        <v>184</v>
-      </c>
-      <c r="E31" s="41" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="41" t="s">
-        <v>190</v>
-      </c>
-      <c r="B32" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="41" t="s">
-        <v>195</v>
-      </c>
-      <c r="D32" s="41" t="s">
-        <v>197</v>
-      </c>
-      <c r="E32" s="41" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="42" t="s">
-        <v>199</v>
-      </c>
-      <c r="B33" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="C33" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="D33" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="E33" s="42" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="B34" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="C34" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="D34" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="E34" s="41" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="B35" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="C35" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="D35" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="E35" s="41" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="41" t="s">
-        <v>214</v>
-      </c>
-      <c r="B36" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="C36" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="D36" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="E36" s="41" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="41" t="s">
-        <v>211</v>
-      </c>
-      <c r="B37" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="C37" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="D37" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="E37" s="41" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="B38" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="C38" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="D38" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="E38" s="41" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="41" t="s">
-        <v>209</v>
-      </c>
-      <c r="B39" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="C39" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="D39" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="E39" s="41" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="41" t="s">
-        <v>208</v>
-      </c>
-      <c r="B40" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="C40" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="D40" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="E40" s="41" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="41" t="s">
-        <v>210</v>
-      </c>
-      <c r="B41" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="C41" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="D41" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="E41" s="41" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="B42" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="C42" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="D42" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="E42" s="41" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="B43" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="C43" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="D43" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="E43" s="41" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="39" t="s">
-        <v>203</v>
-      </c>
-      <c r="B44" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="C44" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="D44" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="E44" s="41" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="39" t="s">
-        <v>204</v>
-      </c>
-      <c r="B45" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="C45" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="D45" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="E45" s="41" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="39" t="s">
-        <v>205</v>
-      </c>
-      <c r="B46" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="C46" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="D46" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="E46" s="41" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="39" t="s">
-        <v>206</v>
-      </c>
-      <c r="B47" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="C47" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="D47" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="E47" s="41" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="39" t="s">
-        <v>207</v>
-      </c>
-      <c r="B48" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="C48" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="D48" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="E48" s="41" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="36" t="s">
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="36" t="s">
+      <c r="B50" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C49" s="36" t="s">
+      <c r="C50" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D49" s="36" t="s">
+      <c r="D50" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E49" s="36" t="s">
+      <c r="E50" s="47" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3175,107 +3230,107 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="17.399999999999999">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="37"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="45" t="s">
-        <v>125</v>
-      </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="46"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="46"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="47"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="47"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="47"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="46"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="47"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="47"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3299,7 +3354,7 @@
   <sheetData>
     <row r="2" spans="1:2" ht="18">
       <c r="A2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:2">

--- a/CoffeeMerchant/BISolutionWorksheets.xlsx
+++ b/CoffeeMerchant/BISolutionWorksheets.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="216">
   <si>
     <t>Object Name</t>
   </si>
@@ -665,9 +665,6 @@
   </si>
   <si>
     <t>DWCoffeeMerchant.dbo.FactSales.TotalCommission</t>
-  </si>
-  <si>
-    <t>DWCoffeeMerchant.dbo.FactSales.Quantity</t>
   </si>
   <si>
     <t>DWCoffeeMerchant.dbo.FactSales.ConsumerSK</t>
@@ -1048,9 +1045,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1060,6 +1054,9 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2320,7 +2317,7 @@
       <c r="E46" s="7"/>
     </row>
     <row r="47" spans="1:5" ht="12.6" customHeight="1">
-      <c r="A47" s="44" t="s">
+      <c r="A47" s="53" t="s">
         <v>33</v>
       </c>
       <c r="B47" t="s">
@@ -2334,7 +2331,7 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="44"/>
+      <c r="A48" s="53"/>
       <c r="C48" t="s">
         <v>66</v>
       </c>
@@ -2386,823 +2383,806 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A3:E50"/>
+  <dimension ref="A3:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="58" style="46" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" style="46" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" style="46" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="46"/>
+    <col min="1" max="1" width="58" style="45" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" style="45" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80" style="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="45"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5" ht="18">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="44" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="46" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="47" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="48" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="49" t="s">
         <v>207</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="49" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="D8" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B9" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="50" t="s">
-        <v>184</v>
-      </c>
-      <c r="D8" s="50" t="s">
+      <c r="C9" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E9" s="49" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="50" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" s="49" t="s">
         <v>215</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B10" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="50" t="s">
-        <v>180</v>
-      </c>
-      <c r="D9" s="50" t="s">
+      <c r="C10" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="D10" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E10" s="49" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="50" t="s">
-        <v>216</v>
-      </c>
-      <c r="B10" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="50" t="s">
-        <v>173</v>
-      </c>
-      <c r="D10" s="50" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>206</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="E10" s="50" t="s">
+      <c r="E11" s="49" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="50" t="s">
-        <v>208</v>
-      </c>
-      <c r="B11" s="50" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" s="49" t="s">
+        <v>209</v>
+      </c>
+      <c r="B12" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C12" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>206</v>
+      </c>
+      <c r="C13" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D13" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="E11" s="50" t="s">
+      <c r="E13" s="49" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="50" t="s">
-        <v>209</v>
-      </c>
-      <c r="B12" s="50" t="s">
+    <row r="14" spans="1:5" ht="14.4" customHeight="1">
+      <c r="A14" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="B14" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="C12" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="D12" s="50" t="s">
+      <c r="C14" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="E12" s="50" t="s">
+      <c r="E14" s="49" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="B13" s="50" t="s">
+    <row r="15" spans="1:5" ht="14.4" customHeight="1">
+      <c r="A15" s="49" t="s">
+        <v>212</v>
+      </c>
+      <c r="B15" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="C13" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="D13" s="50" t="s">
+      <c r="C15" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="E13" s="50" t="s">
+      <c r="E15" s="49" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A14" s="50" t="s">
-        <v>211</v>
-      </c>
-      <c r="B14" s="50" t="s">
-        <v>206</v>
-      </c>
-      <c r="C14" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="D14" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="E14" s="50" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A15" s="50" t="s">
-        <v>212</v>
-      </c>
-      <c r="B15" s="50" t="s">
-        <v>206</v>
-      </c>
-      <c r="C15" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="D15" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="E15" s="50" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A16" s="50" t="s">
-        <v>213</v>
-      </c>
-      <c r="B16" s="50" t="s">
-        <v>206</v>
-      </c>
-      <c r="C16" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="D16" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="E16" s="50" t="s">
-        <v>9</v>
+    <row r="16" spans="1:5">
+      <c r="A16" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="48" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="49" t="s">
-        <v>142</v>
+        <v>184</v>
       </c>
       <c r="B17" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" s="49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="49" t="s">
+        <v>185</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="D18" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="49" t="s">
+        <v>186</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="49" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" s="49" t="s">
+        <v>191</v>
+      </c>
+      <c r="E20" s="49" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21" s="49" t="s">
+        <v>192</v>
+      </c>
+      <c r="E21" s="49" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="49" t="s">
+        <v>189</v>
+      </c>
+      <c r="B22" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="B23" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="49" t="s">
-        <v>147</v>
-      </c>
-      <c r="D17" s="49" t="s">
+      <c r="C23" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="49" t="s">
+      <c r="E23" s="48" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="50" t="s">
-        <v>184</v>
-      </c>
-      <c r="B18" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="D18" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="E18" s="50" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="50" t="s">
-        <v>185</v>
-      </c>
-      <c r="B19" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="50" t="s">
-        <v>190</v>
-      </c>
-      <c r="D19" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="50" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="50" t="s">
-        <v>186</v>
-      </c>
-      <c r="B20" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="C20" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="D20" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="E20" s="50" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="50" t="s">
-        <v>187</v>
-      </c>
-      <c r="B21" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="50" t="s">
-        <v>144</v>
-      </c>
-      <c r="D21" s="50" t="s">
-        <v>191</v>
-      </c>
-      <c r="E21" s="50" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="50" t="s">
-        <v>188</v>
-      </c>
-      <c r="B22" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="50" t="s">
-        <v>145</v>
-      </c>
-      <c r="D22" s="50" t="s">
-        <v>192</v>
-      </c>
-      <c r="E22" s="50" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="50" t="s">
-        <v>189</v>
-      </c>
-      <c r="B23" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" s="50" t="s">
-        <v>146</v>
-      </c>
-      <c r="D23" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="50" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="49" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="B24" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" s="49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="49" t="s">
+        <v>193</v>
+      </c>
+      <c r="D25" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="D26" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="E26" s="49" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="B27" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="D27" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="E27" s="49" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="49" t="s">
+        <v>182</v>
+      </c>
+      <c r="B28" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="D28" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="49" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="B29" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="D29" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="49" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="B30" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="D30" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="E30" s="49" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="B31" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="49" t="s">
-        <v>150</v>
-      </c>
-      <c r="D24" s="49" t="s">
+      <c r="C31" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="D31" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="49" t="s">
+      <c r="E31" s="48" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="50" t="s">
-        <v>180</v>
-      </c>
-      <c r="B25" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="D25" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="E25" s="50" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="50" t="s">
-        <v>181</v>
-      </c>
-      <c r="B26" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26" s="50" t="s">
-        <v>193</v>
-      </c>
-      <c r="D26" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="50" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="B27" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="C27" s="50" t="s">
-        <v>195</v>
-      </c>
-      <c r="D27" s="50" t="s">
-        <v>196</v>
-      </c>
-      <c r="E27" s="50" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="B28" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="C28" s="50" t="s">
-        <v>157</v>
-      </c>
-      <c r="D28" s="50" t="s">
-        <v>197</v>
-      </c>
-      <c r="E28" s="50" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="50" t="s">
-        <v>182</v>
-      </c>
-      <c r="B29" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="C29" s="50" t="s">
-        <v>154</v>
-      </c>
-      <c r="D29" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="E29" s="50" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="50" t="s">
-        <v>183</v>
-      </c>
-      <c r="B30" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="C30" s="50" t="s">
-        <v>156</v>
-      </c>
-      <c r="D30" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" s="50" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="B31" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="C31" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="D31" s="50" t="s">
-        <v>198</v>
-      </c>
-      <c r="E31" s="50" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="49" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="B32" s="49" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="C32" s="49" t="s">
-        <v>159</v>
+        <v>104</v>
       </c>
       <c r="D32" s="49" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="E32" s="49" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="50" t="s">
-        <v>173</v>
-      </c>
-      <c r="B33" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="D33" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="E33" s="50" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A34" s="50" t="s">
+    <row r="33" spans="1:5" ht="14.4" customHeight="1">
+      <c r="A33" s="49" t="s">
         <v>174</v>
       </c>
-      <c r="B34" s="50" t="s">
+      <c r="B33" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="C34" s="50" t="s">
+      <c r="C33" s="49" t="s">
         <v>194</v>
       </c>
-      <c r="D34" s="50" t="s">
+      <c r="D33" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="50" t="s">
+      <c r="E33" s="49" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="B34" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="D34" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="E34" s="49" t="s">
+        <v>148</v>
+      </c>
+    </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="50" t="s">
-        <v>175</v>
+      <c r="A35" s="49" t="s">
+        <v>176</v>
       </c>
       <c r="B35" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="C35" s="50" t="s">
-        <v>160</v>
+      <c r="C35" s="49" t="s">
+        <v>161</v>
       </c>
       <c r="D35" s="50" t="s">
-        <v>148</v>
+        <v>201</v>
       </c>
       <c r="E35" s="50" t="s">
-        <v>148</v>
+        <v>201</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="B36" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="B36" s="50" t="s">
         <v>101</v>
       </c>
       <c r="C36" s="50" t="s">
-        <v>161</v>
-      </c>
-      <c r="D36" s="51" t="s">
-        <v>201</v>
-      </c>
-      <c r="E36" s="51" t="s">
-        <v>201</v>
+        <v>162</v>
+      </c>
+      <c r="D36" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="E36" s="50" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="51" t="s">
-        <v>177</v>
-      </c>
-      <c r="B37" s="51" t="s">
+      <c r="A37" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="B37" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="C37" s="51" t="s">
-        <v>162</v>
-      </c>
-      <c r="D37" s="51" t="s">
-        <v>200</v>
-      </c>
-      <c r="E37" s="51" t="s">
-        <v>200</v>
+      <c r="C37" s="50" t="s">
+        <v>202</v>
+      </c>
+      <c r="D37" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="E37" s="50" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="51" t="s">
-        <v>178</v>
-      </c>
-      <c r="B38" s="51" t="s">
+      <c r="A38" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="B38" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="C38" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="D38" s="51" t="s">
-        <v>148</v>
-      </c>
-      <c r="E38" s="51" t="s">
-        <v>148</v>
+      <c r="C38" s="50" t="s">
+        <v>199</v>
+      </c>
+      <c r="D38" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="50" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="51" t="s">
-        <v>179</v>
-      </c>
-      <c r="B39" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="B39" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="E39" s="51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="B40" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="E40" s="50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="B41" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="C39" s="51" t="s">
-        <v>199</v>
-      </c>
-      <c r="D39" s="51" t="s">
+      <c r="C41" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="E41" s="50" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="B42" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="E42" s="50" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="B43" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="E43" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="E39" s="51" t="s">
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="B44" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="D44" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="E44" s="50" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="B45" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="D45" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="E45" s="50" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="52" t="s">
-        <v>163</v>
-      </c>
-      <c r="B40" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" s="53" t="s">
+    <row r="46" spans="1:5">
+      <c r="A46" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="B46" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="D40" s="52" t="s">
+      <c r="D46" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="E40" s="52" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="51" t="s">
-        <v>170</v>
-      </c>
-      <c r="B41" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="51" t="s">
+      <c r="E46" s="50" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="B47" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="D41" s="51" t="s">
+      <c r="D47" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="E41" s="51" t="s">
+      <c r="E47" s="50" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="51" t="s">
-        <v>171</v>
-      </c>
-      <c r="B42" s="51" t="s">
+    <row r="48" spans="1:5">
+      <c r="A48" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="B48" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="C42" s="51" t="s">
+      <c r="C48" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="D42" s="51" t="s">
+      <c r="D48" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="E42" s="51" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="51" t="s">
-        <v>172</v>
-      </c>
-      <c r="B43" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="C43" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="D43" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="E43" s="51" t="s">
+      <c r="E48" s="50" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="51" t="s">
-        <v>164</v>
-      </c>
-      <c r="B44" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="C44" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="D44" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="E44" s="51" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="51" t="s">
-        <v>165</v>
-      </c>
-      <c r="B45" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="C45" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="D45" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="E45" s="51" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="50" t="s">
-        <v>166</v>
-      </c>
-      <c r="B46" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="C46" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="D46" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="E46" s="51" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="50" t="s">
-        <v>167</v>
-      </c>
-      <c r="B47" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="C47" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="D47" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="E47" s="51" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="50" t="s">
-        <v>168</v>
-      </c>
-      <c r="B48" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="C48" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="D48" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="E48" s="51" t="s">
-        <v>9</v>
-      </c>
-    </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="B49" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="C49" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="D49" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="E49" s="51" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="47" t="s">
+      <c r="A49" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="47" t="s">
+      <c r="B49" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C50" s="47" t="s">
+      <c r="C49" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D50" s="47" t="s">
+      <c r="D49" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="E50" s="47" t="s">
+      <c r="E49" s="46" t="s">
         <v>8</v>
       </c>
     </row>

--- a/CoffeeMerchant/BISolutionWorksheets.xlsx
+++ b/CoffeeMerchant/BISolutionWorksheets.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Quarter 1\DataWarehouseMining\Module 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Quarter 1\DataWarehouseMining\Module 1\hdcoffee\CoffeeMerchant\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="218">
   <si>
     <t>Object Name</t>
   </si>
@@ -487,18 +487,6 @@
     <t>CoffeeMerchant.dbo.Sales.dbo.Employee</t>
   </si>
   <si>
-    <t>DWCoffeeMerchant.dbo.DimStores.City</t>
-  </si>
-  <si>
-    <t>DWCoffeeMerchant.dbo.DimStores.State</t>
-  </si>
-  <si>
-    <t>DWCoffeeMerchant.dbo.DimStores.ZipCode</t>
-  </si>
-  <si>
-    <t>DWCoffeeMerchant.dbo.DimStores.CreditLimit</t>
-  </si>
-  <si>
     <t>DWCoffeeMerchant.dbo.DimConsumer</t>
   </si>
   <si>
@@ -674,24 +662,37 @@
   </si>
   <si>
     <t>varchar(10)</t>
+  </si>
+  <si>
+    <t>DWCoffeeMerchant.dbo.DimConsumer.City</t>
+  </si>
+  <si>
+    <t>DWCoffeeMerchant.dbo.DimConsumer.State</t>
+  </si>
+  <si>
+    <t>DWCoffeeMerchant.dbo.DimConsumer.ZipCode</t>
+  </si>
+  <si>
+    <t>DWCoffeeMerchant.dbo.DimConsumer.CreditLimit</t>
+  </si>
+  <si>
+    <t>CoffeeMerchant.dbo.Inventory.OnHand</t>
+  </si>
+  <si>
+    <t>DWCoffeeMerchant.dbo.DimInventory.OnHand</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Helvetica 65 Medium"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -741,6 +742,39 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Helvetica 65 Medium"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica 65 Medium"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica 65 Medium"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Helvetica 65 Medium"/>
       <family val="2"/>
     </font>
@@ -950,20 +984,20 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -971,15 +1005,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -989,44 +1023,46 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1381,16 +1417,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="41" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1409,16 +1445,16 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="42" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1437,16 +1473,16 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="43" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2287,7 +2323,7 @@
       <c r="E46" s="7"/>
     </row>
     <row r="47" spans="1:5" ht="12.6" customHeight="1">
-      <c r="A47" s="51" t="s">
+      <c r="A47" s="44" t="s">
         <v>33</v>
       </c>
       <c r="B47" t="s">
@@ -2301,7 +2337,7 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="51"/>
+      <c r="A48" s="44"/>
       <c r="C48" t="s">
         <v>66</v>
       </c>
@@ -2353,801 +2389,819 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A3:E49"/>
+  <dimension ref="A3:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="52" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="76.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52" style="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" style="46" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76.88671875" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="46"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5" ht="18">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="45" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="47" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="48" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="49" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="50" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="50" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="50" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="50" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="50" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="50" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="50" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" s="50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="B16" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="E16" s="50" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="50" t="s">
+        <v>213</v>
+      </c>
+      <c r="B17" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="50" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="50" t="s">
+        <v>214</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="E18" s="50" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="50" t="s">
+        <v>215</v>
+      </c>
+      <c r="B19" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="B20" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="D14" s="38" t="s">
+      <c r="C20" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="D20" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="E20" s="49" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="B15" s="39" t="s">
+    <row r="21" spans="1:5">
+      <c r="A21" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="B21" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C21" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="E15" s="39" t="s">
+      <c r="D21" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" s="50" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="E16" s="39" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="B17" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="E17" s="39" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="B18" s="39" t="s">
+    <row r="22" spans="1:5">
+      <c r="A22" s="50" t="s">
+        <v>167</v>
+      </c>
+      <c r="B22" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="C18" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="D18" s="39" t="s">
+      <c r="C22" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="E22" s="50" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="50" t="s">
         <v>166</v>
       </c>
-      <c r="E18" s="39" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="B19" s="39" t="s">
+      <c r="B23" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="38" t="s">
+      <c r="C23" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="E23" s="50" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="50" t="s">
         <v>168</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B24" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="E24" s="50" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="B25" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="D25" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="E25" s="50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="B26" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" s="50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="B27" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="D20" s="38" t="s">
+      <c r="C27" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="D27" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="38" t="s">
+      <c r="E27" s="49" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="39" t="s">
-        <v>179</v>
-      </c>
-      <c r="B21" s="39" t="s">
+    <row r="28" spans="1:5">
+      <c r="A28" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="B28" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C28" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="D21" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="E21" s="39" t="s">
+      <c r="D28" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28" s="50" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="B22" s="39" t="s">
+    <row r="29" spans="1:5" ht="14.4" customHeight="1">
+      <c r="A29" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="B29" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C29" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="D29" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" s="50" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="B30" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="D30" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" s="50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="51" t="s">
+        <v>185</v>
+      </c>
+      <c r="B31" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="D31" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="D22" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="E22" s="39" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="39" t="s">
-        <v>170</v>
-      </c>
-      <c r="B23" s="39" t="s">
+      <c r="E31" s="51" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="B32" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="D23" s="39" t="s">
-        <v>183</v>
-      </c>
-      <c r="E23" s="39" t="s">
+      <c r="C32" s="51" t="s">
+        <v>191</v>
+      </c>
+      <c r="D32" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="E32" s="51" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="B33" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="51" t="s">
+        <v>216</v>
+      </c>
+      <c r="D33" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="52" t="s">
+        <v>195</v>
+      </c>
+      <c r="B34" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="E34" s="52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="B35" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="E35" s="51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="B36" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36" s="51" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="B37" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="E37" s="51" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="51" t="s">
+        <v>207</v>
+      </c>
+      <c r="B38" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="E38" s="51" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="51" t="s">
+        <v>208</v>
+      </c>
+      <c r="B39" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="E39" s="51" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="51" t="s">
+        <v>205</v>
+      </c>
+      <c r="B40" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="E40" s="51" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="51" t="s">
+        <v>204</v>
+      </c>
+      <c r="B41" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="D41" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="E41" s="51" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="B42" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="E42" s="51" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="B24" s="39" t="s">
+    <row r="43" spans="1:5">
+      <c r="A43" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="B43" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="D24" s="39" t="s">
-        <v>184</v>
-      </c>
-      <c r="E24" s="39" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="B25" s="39" t="s">
+      <c r="C43" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="E43" s="51" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="B44" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="D25" s="39" t="s">
-        <v>183</v>
-      </c>
-      <c r="E25" s="39" t="s">
+      <c r="C44" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="E44" s="51" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="B26" s="39" t="s">
+    <row r="45" spans="1:5">
+      <c r="A45" s="50" t="s">
+        <v>199</v>
+      </c>
+      <c r="B45" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="C26" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="D26" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="E26" s="39" t="s">
+      <c r="C45" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="D45" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="E45" s="51" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="B46" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="D46" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="E46" s="51" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="B27" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="D27" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="38" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="B28" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="D28" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="E28" s="39" t="s">
+    <row r="47" spans="1:5">
+      <c r="A47" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="B47" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="E47" s="51" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="50" t="s">
+        <v>202</v>
+      </c>
+      <c r="B48" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="E48" s="51" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A29" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="B29" s="39" t="s">
+    <row r="49" spans="1:5">
+      <c r="A49" s="50" t="s">
+        <v>203</v>
+      </c>
+      <c r="B49" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="C29" s="39" t="s">
-        <v>192</v>
-      </c>
-      <c r="D29" s="39" t="s">
+      <c r="C49" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="D49" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="E49" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="E29" s="39" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="B30" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="C30" s="39" t="s">
-        <v>193</v>
-      </c>
-      <c r="D30" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="E30" s="39" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="41" t="s">
-        <v>189</v>
-      </c>
-      <c r="B31" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="C31" s="41" t="s">
-        <v>194</v>
-      </c>
-      <c r="D31" s="41" t="s">
-        <v>184</v>
-      </c>
-      <c r="E31" s="41" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="41" t="s">
-        <v>190</v>
-      </c>
-      <c r="B32" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="41" t="s">
-        <v>195</v>
-      </c>
-      <c r="D32" s="41" t="s">
-        <v>197</v>
-      </c>
-      <c r="E32" s="41" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="42" t="s">
-        <v>199</v>
-      </c>
-      <c r="B33" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="C33" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="D33" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="E33" s="42" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="B34" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="C34" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="D34" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="E34" s="41" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="B35" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="C35" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="D35" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="E35" s="41" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="41" t="s">
-        <v>214</v>
-      </c>
-      <c r="B36" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="C36" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="D36" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="E36" s="41" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="41" t="s">
-        <v>211</v>
-      </c>
-      <c r="B37" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="C37" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="D37" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="E37" s="41" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="B38" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="C38" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="D38" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="E38" s="41" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="41" t="s">
-        <v>209</v>
-      </c>
-      <c r="B39" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="C39" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="D39" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="E39" s="41" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="41" t="s">
-        <v>208</v>
-      </c>
-      <c r="B40" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="C40" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="D40" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="E40" s="41" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="41" t="s">
-        <v>210</v>
-      </c>
-      <c r="B41" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="C41" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="D41" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="E41" s="41" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="B42" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="C42" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="D42" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="E42" s="41" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="B43" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="C43" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="D43" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="E43" s="41" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="39" t="s">
-        <v>203</v>
-      </c>
-      <c r="B44" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="C44" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="D44" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="E44" s="41" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="39" t="s">
-        <v>204</v>
-      </c>
-      <c r="B45" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="C45" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="D45" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="E45" s="41" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="39" t="s">
-        <v>205</v>
-      </c>
-      <c r="B46" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="C46" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="D46" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="E46" s="41" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="39" t="s">
-        <v>206</v>
-      </c>
-      <c r="B47" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="C47" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="D47" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="E47" s="41" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="39" t="s">
-        <v>207</v>
-      </c>
-      <c r="B48" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="C48" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="D48" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="E48" s="41" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="36" t="s">
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="36" t="s">
+      <c r="B50" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C49" s="36" t="s">
+      <c r="C50" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D49" s="36" t="s">
+      <c r="D50" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E49" s="36" t="s">
+      <c r="E50" s="47" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3175,107 +3229,107 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="17.399999999999999">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="38" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="46"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="46"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="47"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="47"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="47"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="46"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="47"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="47"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
